--- a/assets/excel/Rekap Presensi harian.xlsx
+++ b/assets/excel/Rekap Presensi harian.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
   <si>
     <t>REKAP PRESENSI</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Abdul Latief Baedhowi</t>
-  </si>
-  <si>
-    <t>Direktur Operasional</t>
   </si>
   <si>
     <t>06:00:00</t>
@@ -1254,28 +1251,26 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4"/>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1285,29 +1280,29 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1319,31 +1314,31 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1353,65 +1348,65 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1421,29 +1416,29 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1453,29 +1448,29 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1487,31 +1482,31 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1521,29 +1516,29 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1555,31 +1550,31 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
         <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1589,29 +1584,29 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1621,29 +1616,29 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
         <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1653,65 +1648,65 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
         <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>14</v>
       </c>
       <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
         <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
         <v>61</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1721,29 +1716,29 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
         <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1753,29 +1748,29 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1785,65 +1780,65 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
         <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>18</v>
       </c>
       <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
         <v>70</v>
-      </c>
-      <c r="F21" t="s">
-        <v>71</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -1853,29 +1848,29 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
         <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -1885,29 +1880,29 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
         <v>75</v>
-      </c>
-      <c r="F23" t="s">
-        <v>76</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -1917,65 +1912,65 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
         <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>78</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>22</v>
       </c>
       <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
         <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1987,31 +1982,31 @@
         <v>23</v>
       </c>
       <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
         <v>83</v>
-      </c>
-      <c r="F26" t="s">
-        <v>84</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -2021,24 +2016,24 @@
         <v>24</v>
       </c>
       <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
         <v>85</v>
-      </c>
-      <c r="F27" t="s">
-        <v>86</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2053,29 +2048,29 @@
         <v>25</v>
       </c>
       <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
         <v>87</v>
-      </c>
-      <c r="F28" t="s">
-        <v>88</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2085,24 +2080,24 @@
         <v>26</v>
       </c>
       <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
         <v>89</v>
-      </c>
-      <c r="F29" t="s">
-        <v>90</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2110,40 +2105,40 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
         <v>93</v>
-      </c>
-      <c r="F30" t="s">
-        <v>94</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -2155,31 +2150,31 @@
         <v>28</v>
       </c>
       <c r="E31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" t="s">
         <v>95</v>
-      </c>
-      <c r="F31" t="s">
-        <v>96</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -2189,29 +2184,29 @@
         <v>29</v>
       </c>
       <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" t="s">
         <v>98</v>
-      </c>
-      <c r="F32" t="s">
-        <v>99</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -2223,31 +2218,31 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
         <v>101</v>
-      </c>
-      <c r="F33" t="s">
-        <v>102</v>
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -2257,29 +2252,29 @@
         <v>31</v>
       </c>
       <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
         <v>104</v>
-      </c>
-      <c r="F34" t="s">
-        <v>105</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -2291,31 +2286,31 @@
         <v>32</v>
       </c>
       <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
         <v>106</v>
-      </c>
-      <c r="F35" t="s">
-        <v>107</v>
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -2325,61 +2320,61 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" t="s">
         <v>109</v>
-      </c>
-      <c r="F36" t="s">
-        <v>110</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37"/>
       <c r="D37">
         <v>34</v>
       </c>
       <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
         <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -2391,31 +2386,31 @@
         <v>35</v>
       </c>
       <c r="E38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" t="s">
         <v>113</v>
-      </c>
-      <c r="F38" t="s">
-        <v>114</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -2425,65 +2420,65 @@
         <v>36</v>
       </c>
       <c r="E39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" t="s">
         <v>115</v>
-      </c>
-      <c r="F39" t="s">
-        <v>116</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40">
         <v>37</v>
       </c>
       <c r="E40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" t="s">
         <v>117</v>
-      </c>
-      <c r="F40" t="s">
-        <v>118</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -2493,29 +2488,29 @@
         <v>38</v>
       </c>
       <c r="E41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" t="s">
         <v>120</v>
-      </c>
-      <c r="F41" t="s">
-        <v>121</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -2525,29 +2520,29 @@
         <v>39</v>
       </c>
       <c r="E42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" t="s">
         <v>122</v>
-      </c>
-      <c r="F42" t="s">
-        <v>123</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -2557,65 +2552,65 @@
         <v>40</v>
       </c>
       <c r="E43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" t="s">
         <v>124</v>
-      </c>
-      <c r="F43" t="s">
-        <v>125</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44">
         <v>41</v>
       </c>
       <c r="E44" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" t="s">
         <v>126</v>
-      </c>
-      <c r="F44" t="s">
-        <v>127</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I44" t="s">
+        <v>127</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
         <v>128</v>
-      </c>
-      <c r="J44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -2625,65 +2620,65 @@
         <v>42</v>
       </c>
       <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" t="s">
         <v>130</v>
-      </c>
-      <c r="F45" t="s">
-        <v>131</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>43</v>
       </c>
       <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" t="s">
         <v>133</v>
-      </c>
-      <c r="F46" t="s">
-        <v>134</v>
       </c>
       <c r="G46"/>
       <c r="H46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -2693,29 +2688,29 @@
         <v>44</v>
       </c>
       <c r="E47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" t="s">
         <v>136</v>
-      </c>
-      <c r="F47" t="s">
-        <v>137</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -2727,26 +2722,26 @@
         <v>45</v>
       </c>
       <c r="E48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" t="s">
         <v>138</v>
-      </c>
-      <c r="F48" t="s">
-        <v>139</v>
       </c>
       <c r="G48"/>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2763,31 +2758,31 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" t="s">
         <v>141</v>
-      </c>
-      <c r="F49" t="s">
-        <v>142</v>
       </c>
       <c r="G49"/>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -2797,29 +2792,29 @@
         <v>47</v>
       </c>
       <c r="E50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" t="s">
         <v>143</v>
-      </c>
-      <c r="F50" t="s">
-        <v>144</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -2829,29 +2824,29 @@
         <v>48</v>
       </c>
       <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" t="s">
         <v>145</v>
-      </c>
-      <c r="F51" t="s">
-        <v>146</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
@@ -2861,29 +2856,29 @@
         <v>49</v>
       </c>
       <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" t="s">
         <v>147</v>
-      </c>
-      <c r="F52" t="s">
-        <v>148</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
@@ -2893,29 +2888,29 @@
         <v>50</v>
       </c>
       <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" t="s">
         <v>149</v>
-      </c>
-      <c r="F53" t="s">
-        <v>150</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -2925,24 +2920,24 @@
         <v>51</v>
       </c>
       <c r="E54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" t="s">
         <v>151</v>
-      </c>
-      <c r="F54" t="s">
-        <v>152</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2959,31 +2954,31 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" t="s">
         <v>153</v>
-      </c>
-      <c r="F55" t="s">
-        <v>154</v>
       </c>
       <c r="G55"/>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2995,31 +2990,31 @@
         <v>53</v>
       </c>
       <c r="E56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" t="s">
         <v>155</v>
-      </c>
-      <c r="F56" t="s">
-        <v>156</v>
       </c>
       <c r="G56"/>
       <c r="H56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -3029,101 +3024,101 @@
         <v>54</v>
       </c>
       <c r="E57" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" t="s">
         <v>158</v>
-      </c>
-      <c r="F57" t="s">
-        <v>159</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58">
         <v>55</v>
       </c>
       <c r="E58" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" t="s">
         <v>162</v>
-      </c>
-      <c r="F58" t="s">
-        <v>163</v>
       </c>
       <c r="G58"/>
       <c r="H58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" t="s">
         <v>164</v>
       </c>
-      <c r="I58" t="s">
-        <v>165</v>
-      </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" t="s">
         <v>166</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>167</v>
-      </c>
-      <c r="C59" t="s">
-        <v>168</v>
       </c>
       <c r="D59">
         <v>56</v>
       </c>
       <c r="E59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59" t="s">
         <v>169</v>
-      </c>
-      <c r="F59" t="s">
-        <v>170</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
+        <v>170</v>
+      </c>
+      <c r="I59" t="s">
         <v>171</v>
       </c>
-      <c r="I59" t="s">
-        <v>172</v>
-      </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
@@ -3133,29 +3128,29 @@
         <v>57</v>
       </c>
       <c r="E60" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" t="s">
         <v>173</v>
-      </c>
-      <c r="F60" t="s">
-        <v>174</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
@@ -3165,29 +3160,29 @@
         <v>58</v>
       </c>
       <c r="E61" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" t="s">
         <v>175</v>
-      </c>
-      <c r="F61" t="s">
-        <v>176</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -3197,24 +3192,24 @@
         <v>59</v>
       </c>
       <c r="E62" t="s">
+        <v>176</v>
+      </c>
+      <c r="F62" t="s">
         <v>177</v>
-      </c>
-      <c r="F62" t="s">
-        <v>178</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3231,31 +3226,31 @@
         <v>60</v>
       </c>
       <c r="E63" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" t="s">
         <v>179</v>
-      </c>
-      <c r="F63" t="s">
-        <v>180</v>
       </c>
       <c r="G63"/>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -3265,29 +3260,29 @@
         <v>61</v>
       </c>
       <c r="E64" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" t="s">
         <v>181</v>
-      </c>
-      <c r="F64" t="s">
-        <v>182</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
@@ -3297,29 +3292,29 @@
         <v>62</v>
       </c>
       <c r="E65" t="s">
+        <v>182</v>
+      </c>
+      <c r="F65" t="s">
         <v>183</v>
-      </c>
-      <c r="F65" t="s">
-        <v>184</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
@@ -3329,65 +3324,65 @@
         <v>63</v>
       </c>
       <c r="E66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F66" t="s">
         <v>185</v>
-      </c>
-      <c r="F66" t="s">
-        <v>186</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67">
         <v>64</v>
       </c>
       <c r="E67" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" t="s">
         <v>187</v>
-      </c>
-      <c r="F67" t="s">
-        <v>188</v>
       </c>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -3397,65 +3392,65 @@
         <v>65</v>
       </c>
       <c r="E68" t="s">
+        <v>189</v>
+      </c>
+      <c r="F68" t="s">
         <v>190</v>
-      </c>
-      <c r="F68" t="s">
-        <v>191</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69">
         <v>66</v>
       </c>
       <c r="E69" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69" t="s">
         <v>192</v>
-      </c>
-      <c r="F69" t="s">
-        <v>193</v>
       </c>
       <c r="G69"/>
       <c r="H69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
@@ -3465,29 +3460,29 @@
         <v>67</v>
       </c>
       <c r="E70" t="s">
+        <v>194</v>
+      </c>
+      <c r="F70" t="s">
         <v>195</v>
-      </c>
-      <c r="F70" t="s">
-        <v>196</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -3497,29 +3492,29 @@
         <v>68</v>
       </c>
       <c r="E71" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" t="s">
         <v>197</v>
-      </c>
-      <c r="F71" t="s">
-        <v>198</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
@@ -3529,24 +3524,24 @@
         <v>69</v>
       </c>
       <c r="E72" t="s">
+        <v>198</v>
+      </c>
+      <c r="F72" t="s">
         <v>199</v>
-      </c>
-      <c r="F72" t="s">
-        <v>200</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3563,62 +3558,62 @@
         <v>70</v>
       </c>
       <c r="E73" t="s">
+        <v>200</v>
+      </c>
+      <c r="F73" t="s">
         <v>201</v>
-      </c>
-      <c r="F73" t="s">
-        <v>202</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D74">
         <v>71</v>
       </c>
       <c r="E74" t="s">
+        <v>202</v>
+      </c>
+      <c r="F74" t="s">
         <v>203</v>
-      </c>
-      <c r="F74" t="s">
-        <v>204</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3633,24 +3628,24 @@
         <v>72</v>
       </c>
       <c r="E75" t="s">
+        <v>205</v>
+      </c>
+      <c r="F75" t="s">
         <v>206</v>
-      </c>
-      <c r="F75" t="s">
-        <v>207</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3667,26 +3662,26 @@
         <v>73</v>
       </c>
       <c r="E76" t="s">
+        <v>207</v>
+      </c>
+      <c r="F76" t="s">
         <v>208</v>
-      </c>
-      <c r="F76" t="s">
-        <v>209</v>
       </c>
       <c r="G76"/>
       <c r="H76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3703,31 +3698,31 @@
         <v>74</v>
       </c>
       <c r="E77" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" t="s">
         <v>210</v>
-      </c>
-      <c r="F77" t="s">
-        <v>211</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
@@ -3737,101 +3732,101 @@
         <v>75</v>
       </c>
       <c r="E78" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" t="s">
         <v>212</v>
-      </c>
-      <c r="F78" t="s">
-        <v>213</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79">
         <v>76</v>
       </c>
       <c r="E79" t="s">
+        <v>213</v>
+      </c>
+      <c r="F79" t="s">
         <v>214</v>
-      </c>
-      <c r="F79" t="s">
-        <v>215</v>
       </c>
       <c r="G79"/>
       <c r="H79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I79" t="s">
+        <v>215</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" t="s">
+        <v>21</v>
+      </c>
+      <c r="L79" t="s">
         <v>216</v>
-      </c>
-      <c r="J79" t="s">
-        <v>22</v>
-      </c>
-      <c r="K79" t="s">
-        <v>22</v>
-      </c>
-      <c r="L79" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D80">
         <v>77</v>
       </c>
       <c r="E80" t="s">
+        <v>217</v>
+      </c>
+      <c r="F80" t="s">
         <v>218</v>
-      </c>
-      <c r="F80" t="s">
-        <v>219</v>
       </c>
       <c r="G80"/>
       <c r="H80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I80" t="s">
+        <v>219</v>
+      </c>
+      <c r="J80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L80" t="s">
         <v>220</v>
-      </c>
-      <c r="J80" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" t="s">
-        <v>22</v>
-      </c>
-      <c r="L80" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
@@ -3841,24 +3836,24 @@
         <v>78</v>
       </c>
       <c r="E81" t="s">
+        <v>221</v>
+      </c>
+      <c r="F81" t="s">
         <v>222</v>
-      </c>
-      <c r="F81" t="s">
-        <v>223</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3875,31 +3870,31 @@
         <v>79</v>
       </c>
       <c r="E82" t="s">
+        <v>223</v>
+      </c>
+      <c r="F82" t="s">
         <v>224</v>
-      </c>
-      <c r="F82" t="s">
-        <v>225</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
@@ -3909,24 +3904,24 @@
         <v>80</v>
       </c>
       <c r="E83" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" t="s">
         <v>226</v>
-      </c>
-      <c r="F83" t="s">
-        <v>227</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -3941,29 +3936,29 @@
         <v>81</v>
       </c>
       <c r="E84" t="s">
+        <v>227</v>
+      </c>
+      <c r="F84" t="s">
         <v>228</v>
-      </c>
-      <c r="F84" t="s">
-        <v>229</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -3973,24 +3968,24 @@
         <v>82</v>
       </c>
       <c r="E85" t="s">
+        <v>229</v>
+      </c>
+      <c r="F85" t="s">
         <v>230</v>
-      </c>
-      <c r="F85" t="s">
-        <v>231</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4007,26 +4002,26 @@
         <v>83</v>
       </c>
       <c r="E86" t="s">
+        <v>231</v>
+      </c>
+      <c r="F86" t="s">
         <v>232</v>
-      </c>
-      <c r="F86" t="s">
-        <v>233</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4043,31 +4038,31 @@
         <v>84</v>
       </c>
       <c r="E87" t="s">
+        <v>233</v>
+      </c>
+      <c r="F87" t="s">
         <v>234</v>
-      </c>
-      <c r="F87" t="s">
-        <v>235</v>
       </c>
       <c r="G87"/>
       <c r="H87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
@@ -4077,24 +4072,24 @@
         <v>85</v>
       </c>
       <c r="E88" t="s">
+        <v>235</v>
+      </c>
+      <c r="F88" t="s">
         <v>236</v>
-      </c>
-      <c r="F88" t="s">
-        <v>237</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4111,31 +4106,31 @@
         <v>86</v>
       </c>
       <c r="E89" t="s">
+        <v>237</v>
+      </c>
+      <c r="F89" t="s">
         <v>238</v>
-      </c>
-      <c r="F89" t="s">
-        <v>239</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
@@ -4145,29 +4140,29 @@
         <v>87</v>
       </c>
       <c r="E90" t="s">
+        <v>239</v>
+      </c>
+      <c r="F90" t="s">
         <v>240</v>
-      </c>
-      <c r="F90" t="s">
-        <v>241</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
@@ -4177,29 +4172,29 @@
         <v>88</v>
       </c>
       <c r="E91" t="s">
+        <v>241</v>
+      </c>
+      <c r="F91" t="s">
         <v>242</v>
-      </c>
-      <c r="F91" t="s">
-        <v>243</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
@@ -4209,24 +4204,24 @@
         <v>89</v>
       </c>
       <c r="E92" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" t="s">
         <v>244</v>
-      </c>
-      <c r="F92" t="s">
-        <v>245</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4243,62 +4238,62 @@
         <v>90</v>
       </c>
       <c r="E93" t="s">
+        <v>245</v>
+      </c>
+      <c r="F93" t="s">
         <v>246</v>
-      </c>
-      <c r="F93" t="s">
-        <v>247</v>
       </c>
       <c r="G93"/>
       <c r="H93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D94">
         <v>91</v>
       </c>
       <c r="E94" t="s">
+        <v>249</v>
+      </c>
+      <c r="F94" t="s">
         <v>250</v>
-      </c>
-      <c r="F94" t="s">
-        <v>251</v>
       </c>
       <c r="G94"/>
       <c r="H94" t="s">
+        <v>251</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>21</v>
+      </c>
+      <c r="K94" t="s">
+        <v>21</v>
+      </c>
+      <c r="L94" t="s">
         <v>252</v>
-      </c>
-      <c r="I94" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" t="s">
-        <v>22</v>
-      </c>
-      <c r="K94" t="s">
-        <v>22</v>
-      </c>
-      <c r="L94" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4313,65 +4308,65 @@
         <v>92</v>
       </c>
       <c r="E95" t="s">
+        <v>253</v>
+      </c>
+      <c r="F95" t="s">
         <v>254</v>
-      </c>
-      <c r="F95" t="s">
-        <v>255</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D96">
         <v>93</v>
       </c>
       <c r="E96" t="s">
+        <v>255</v>
+      </c>
+      <c r="F96" t="s">
         <v>256</v>
-      </c>
-      <c r="F96" t="s">
-        <v>257</v>
       </c>
       <c r="G96"/>
       <c r="H96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
@@ -4383,26 +4378,26 @@
         <v>94</v>
       </c>
       <c r="E97" t="s">
+        <v>259</v>
+      </c>
+      <c r="F97" t="s">
         <v>260</v>
-      </c>
-      <c r="F97" t="s">
-        <v>261</v>
       </c>
       <c r="G97"/>
       <c r="H97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4419,67 +4414,67 @@
         <v>95</v>
       </c>
       <c r="E98" t="s">
+        <v>261</v>
+      </c>
+      <c r="F98" t="s">
         <v>262</v>
-      </c>
-      <c r="F98" t="s">
-        <v>263</v>
       </c>
       <c r="G98"/>
       <c r="H98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D99">
         <v>96</v>
       </c>
       <c r="E99" t="s">
+        <v>263</v>
+      </c>
+      <c r="F99" t="s">
         <v>264</v>
-      </c>
-      <c r="F99" t="s">
-        <v>265</v>
       </c>
       <c r="G99"/>
       <c r="H99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
@@ -4489,29 +4484,29 @@
         <v>97</v>
       </c>
       <c r="E100" t="s">
+        <v>266</v>
+      </c>
+      <c r="F100" t="s">
         <v>267</v>
-      </c>
-      <c r="F100" t="s">
-        <v>268</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
       <c r="I100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -4521,61 +4516,61 @@
         <v>98</v>
       </c>
       <c r="E101" t="s">
+        <v>268</v>
+      </c>
+      <c r="F101" t="s">
         <v>269</v>
-      </c>
-      <c r="F101" t="s">
-        <v>270</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C102"/>
       <c r="D102">
         <v>99</v>
       </c>
       <c r="E102" t="s">
+        <v>271</v>
+      </c>
+      <c r="F102" t="s">
         <v>272</v>
-      </c>
-      <c r="F102" t="s">
-        <v>273</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
@@ -4590,23 +4585,23 @@
         <v>1000</v>
       </c>
       <c r="F103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G103"/>
       <c r="H103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Rekap Presensi harian.xlsx
+++ b/assets/excel/Rekap Presensi harian.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>REKAP PRESENSI</t>
   </si>
@@ -62,37 +62,34 @@
     <t>Scan Pulang</t>
   </si>
   <si>
-    <t>2021-08-05</t>
+    <t>2022-06-18</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>Sen - Jum</t>
-  </si>
-  <si>
-    <t>2012.12.01.002</t>
-  </si>
-  <si>
-    <t>Abdul Latief Baedhowi</t>
+    <t>Sabtu</t>
+  </si>
+  <si>
+    <t>2012.12.01.003</t>
+  </si>
+  <si>
+    <t>Ahmad Hanif</t>
   </si>
   <si>
     <t>06:00:00</t>
   </si>
   <si>
+    <t>07:10:38</t>
+  </si>
+  <si>
     <t>00:00:00</t>
   </si>
   <si>
-    <t>2022-03-13</t>
-  </si>
-  <si>
-    <t>2012.12.01.003</t>
-  </si>
-  <si>
-    <t>Ahmad Hanif</t>
-  </si>
-  <si>
-    <t>2022-03-11</t>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>12:18:12</t>
   </si>
   <si>
     <t>2012.12.01.004</t>
@@ -101,7 +98,7 @@
     <t>Iwan Setiyawan</t>
   </si>
   <si>
-    <t>15:56:54</t>
+    <t>06:47:59</t>
   </si>
   <si>
     <t>2012.12.01.005</t>
@@ -110,10 +107,13 @@
     <t>Tri Wardaningtyas</t>
   </si>
   <si>
-    <t>2022-03-14</t>
-  </si>
-  <si>
-    <t>Sen - Jum Shift 2</t>
+    <t>06:50:43</t>
+  </si>
+  <si>
+    <t>12:34:05</t>
+  </si>
+  <si>
+    <t>Sabtu Shift 2</t>
   </si>
   <si>
     <t>2012.12.01.006</t>
@@ -122,10 +122,16 @@
     <t>Sudarsono</t>
   </si>
   <si>
-    <t>14:15:00</t>
-  </si>
-  <si>
-    <t>15:01:16</t>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>12:49:01</t>
+  </si>
+  <si>
+    <t>18:45:00</t>
+  </si>
+  <si>
+    <t>17:47:37</t>
   </si>
   <si>
     <t>2012.12.01.008</t>
@@ -134,13 +140,19 @@
     <t>Tri Bekti Rianto</t>
   </si>
   <si>
+    <t>06:54:11</t>
+  </si>
+  <si>
+    <t>12:14:33</t>
+  </si>
+  <si>
     <t>2012.12.01.009</t>
   </si>
   <si>
     <t>Samiran</t>
   </si>
   <si>
-    <t>2022-03-03</t>
+    <t>06:44:02</t>
   </si>
   <si>
     <t>2012.12.01.010</t>
@@ -149,7 +161,10 @@
     <t>Edy Rusmanto</t>
   </si>
   <si>
-    <t>2022-03-20</t>
+    <t>06:48:49</t>
+  </si>
+  <si>
+    <t>12:01:39</t>
   </si>
   <si>
     <t>2012.12.01.011</t>
@@ -158,7 +173,10 @@
     <t>Roni Slamet</t>
   </si>
   <si>
-    <t>2022-03-29</t>
+    <t>12:50:56</t>
+  </si>
+  <si>
+    <t>17:45:47</t>
   </si>
   <si>
     <t>2012.12.01.012</t>
@@ -167,7 +185,10 @@
     <t>Ihsanuddin</t>
   </si>
   <si>
-    <t>21:02:38</t>
+    <t>06:49:12</t>
+  </si>
+  <si>
+    <t>12:33:12</t>
   </si>
   <si>
     <t>2012.12.01.013</t>
@@ -176,19 +197,34 @@
     <t>Sukirman</t>
   </si>
   <si>
+    <t>06:45:51</t>
+  </si>
+  <si>
+    <t>12:13:30</t>
+  </si>
+  <si>
     <t>2012.12.01.014</t>
   </si>
   <si>
     <t>Bambang Gunartok</t>
   </si>
   <si>
+    <t>06:35:28</t>
+  </si>
+  <si>
+    <t>12:01:43</t>
+  </si>
+  <si>
     <t>2012.12.01.015</t>
   </si>
   <si>
     <t>Rudi Riswanto</t>
   </si>
   <si>
-    <t>2022-03-17</t>
+    <t>06:51:57</t>
+  </si>
+  <si>
+    <t>12:00:26</t>
   </si>
   <si>
     <t>2012.12.01.016</t>
@@ -197,10 +233,10 @@
     <t>Maryono</t>
   </si>
   <si>
-    <t>15:03:59</t>
-  </si>
-  <si>
-    <t>22:31:16</t>
+    <t>06:42:30</t>
+  </si>
+  <si>
+    <t>12:02:26</t>
   </si>
   <si>
     <t>2012.12.01.017</t>
@@ -209,19 +245,34 @@
     <t>Muryanto</t>
   </si>
   <si>
+    <t>06:42:03</t>
+  </si>
+  <si>
+    <t>12:00:22</t>
+  </si>
+  <si>
     <t>2012.12.01.018</t>
   </si>
   <si>
     <t>Heri Susanto</t>
   </si>
   <si>
+    <t>06:49:04</t>
+  </si>
+  <si>
+    <t>12:06:40</t>
+  </si>
+  <si>
     <t>2012.12.01.019</t>
   </si>
   <si>
     <t>Bagus Widodo</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>06:55:33</t>
+  </si>
+  <si>
+    <t>12:01:48</t>
   </si>
   <si>
     <t>2012.12.01.021</t>
@@ -230,7 +281,7 @@
     <t>Aristiyo Budi</t>
   </si>
   <si>
-    <t>15:01:28</t>
+    <t>06:40:13</t>
   </si>
   <si>
     <t>2012.12.01.022</t>
@@ -239,28 +290,46 @@
     <t>Eni Watiningsih</t>
   </si>
   <si>
+    <t>06:53:11</t>
+  </si>
+  <si>
+    <t>12:01:31</t>
+  </si>
+  <si>
     <t>2012.12.01.024</t>
   </si>
   <si>
     <t>Suharini</t>
   </si>
   <si>
+    <t>06:56:50</t>
+  </si>
+  <si>
+    <t>12:05:15</t>
+  </si>
+  <si>
     <t>2012.12.01.025</t>
   </si>
   <si>
     <t>Sofani</t>
   </si>
   <si>
+    <t>06:55:29</t>
+  </si>
+  <si>
+    <t>12:12:30</t>
+  </si>
+  <si>
     <t>2012.12.01.029</t>
   </si>
   <si>
     <t>Slamet Triyoga</t>
   </si>
   <si>
-    <t>15:01:24</t>
-  </si>
-  <si>
-    <t>2022-03-07</t>
+    <t>06:53:54</t>
+  </si>
+  <si>
+    <t>12:05:47</t>
   </si>
   <si>
     <t>2012.12.01.031</t>
@@ -269,16 +338,19 @@
     <t>Arise Siswanto</t>
   </si>
   <si>
+    <t>06:56:55</t>
+  </si>
+  <si>
+    <t>12:17:35</t>
+  </si>
+  <si>
     <t>2012.12.02.032</t>
   </si>
   <si>
     <t>Heru Setiawan</t>
   </si>
   <si>
-    <t>2012.12.04.034</t>
-  </si>
-  <si>
-    <t>Kanang Suhartanto</t>
+    <t>06:40:03</t>
   </si>
   <si>
     <t>2012.12.04.035</t>
@@ -287,64 +359,82 @@
     <t>Agus Tugiyono</t>
   </si>
   <si>
+    <t>12:36:46</t>
+  </si>
+  <si>
+    <t>17:46:48</t>
+  </si>
+  <si>
+    <t>2012.12.04.037</t>
+  </si>
+  <si>
+    <t>Nur Muh Attabik</t>
+  </si>
+  <si>
+    <t>06:49:47</t>
+  </si>
+  <si>
+    <t>12:37:45</t>
+  </si>
+  <si>
+    <t>2012.12.04.038</t>
+  </si>
+  <si>
+    <t>Ihsan Zulkarnain</t>
+  </si>
+  <si>
+    <t>06:47:02</t>
+  </si>
+  <si>
+    <t>12:00:29</t>
+  </si>
+  <si>
+    <t>2012.12.04.039</t>
+  </si>
+  <si>
+    <t>Heru Susmanto</t>
+  </si>
+  <si>
+    <t>06:50:50</t>
+  </si>
+  <si>
+    <t>2012.12.05.041</t>
+  </si>
+  <si>
+    <t>Suharyanto</t>
+  </si>
+  <si>
+    <t>06:55:11</t>
+  </si>
+  <si>
+    <t>12:09:58</t>
+  </si>
+  <si>
+    <t>2012.12.05.042</t>
+  </si>
+  <si>
+    <t>Wisnu Ardi</t>
+  </si>
+  <si>
+    <t>06:57:44</t>
+  </si>
+  <si>
+    <t>12:10:01</t>
+  </si>
+  <si>
+    <t>2012.12.05.043</t>
+  </si>
+  <si>
+    <t>Agung Frediyanto</t>
+  </si>
+  <si>
+    <t>06:55:17</t>
+  </si>
+  <si>
     <t>Khusus</t>
   </si>
   <si>
-    <t>Khusus SJ</t>
-  </si>
-  <si>
-    <t>2012.12.04.036</t>
-  </si>
-  <si>
-    <t>Agus Salim</t>
-  </si>
-  <si>
-    <t>2012.12.04.037</t>
-  </si>
-  <si>
-    <t>Nur Muh Attabik</t>
-  </si>
-  <si>
-    <t>16:03:52</t>
-  </si>
-  <si>
-    <t>2012.12.04.038</t>
-  </si>
-  <si>
-    <t>Ihsan Zulkarnain</t>
-  </si>
-  <si>
-    <t>2022-03-15</t>
-  </si>
-  <si>
-    <t>2012.12.04.039</t>
-  </si>
-  <si>
-    <t>Heru Susmanto</t>
-  </si>
-  <si>
-    <t>18:52:23</t>
-  </si>
-  <si>
-    <t>2012.12.05.041</t>
-  </si>
-  <si>
-    <t>Suharyanto</t>
-  </si>
-  <si>
-    <t>2012.12.05.042</t>
-  </si>
-  <si>
-    <t>Wisnu Ardi</t>
-  </si>
-  <si>
-    <t>16:59:02</t>
-  </si>
-  <si>
-    <t>2012.12.05.043</t>
-  </si>
-  <si>
-    <t>Agung Frediyanto</t>
+    <t>Khusus Sab</t>
   </si>
   <si>
     <t>2012.12.07.044</t>
@@ -353,25 +443,46 @@
     <t>Dedy Rahmad Bahtiyar</t>
   </si>
   <si>
+    <t>06:17:22</t>
+  </si>
+  <si>
+    <t>16:45:00</t>
+  </si>
+  <si>
     <t>2012.12.07.045</t>
   </si>
   <si>
     <t>Andri Bayu Suryatno</t>
   </si>
   <si>
+    <t>06:55:25</t>
+  </si>
+  <si>
+    <t>12:20:34</t>
+  </si>
+  <si>
     <t>2012.12.09.046</t>
   </si>
   <si>
     <t>Sulis Wahyu Hendratiningsih</t>
   </si>
   <si>
+    <t>06:53:44</t>
+  </si>
+  <si>
+    <t>12:04:15</t>
+  </si>
+  <si>
     <t>2012.12.10.048</t>
   </si>
   <si>
     <t>Margantoro Suryo Atmojo</t>
   </si>
   <si>
-    <t>15:02:01</t>
+    <t>06:55:14</t>
+  </si>
+  <si>
+    <t>12:00:19</t>
   </si>
   <si>
     <t>2012.12.10.049</t>
@@ -380,28 +491,43 @@
     <t>Sumarlan</t>
   </si>
   <si>
+    <t>06:53:32</t>
+  </si>
+  <si>
+    <t>12:13:01</t>
+  </si>
+  <si>
     <t>2012.12.11.050</t>
   </si>
   <si>
     <t>Wahyu Yuniarto</t>
   </si>
   <si>
+    <t>06:32:18</t>
+  </si>
+  <si>
+    <t>12:00:08</t>
+  </si>
+  <si>
     <t>2012.12.11.051</t>
   </si>
   <si>
     <t>Jumadi</t>
   </si>
   <si>
+    <t>06:25:20</t>
+  </si>
+  <si>
     <t>2012.12.11.052</t>
   </si>
   <si>
     <t>Marsudi</t>
   </si>
   <si>
-    <t>15:05:46</t>
-  </si>
-  <si>
-    <t>22:30:21</t>
+    <t>12:53:40</t>
+  </si>
+  <si>
+    <t>17:47:24</t>
   </si>
   <si>
     <t>2012.12.11.054</t>
@@ -410,7 +536,10 @@
     <t>Andika Barun</t>
   </si>
   <si>
-    <t>2022-03-18</t>
+    <t>06:47:40</t>
+  </si>
+  <si>
+    <t>12:05:59</t>
   </si>
   <si>
     <t>2012.13.02.058</t>
@@ -419,7 +548,10 @@
     <t>Ngatiman</t>
   </si>
   <si>
-    <t>16:00:06</t>
+    <t>06:57:21</t>
+  </si>
+  <si>
+    <t>12:01:28</t>
   </si>
   <si>
     <t>2012.13.02.059</t>
@@ -428,19 +560,22 @@
     <t>Indra Wahyudi</t>
   </si>
   <si>
+    <t>06:50:13</t>
+  </si>
+  <si>
+    <t>12:13:39</t>
+  </si>
+  <si>
     <t>2012.13.03.061</t>
   </si>
   <si>
     <t>M Indriyanto</t>
   </si>
   <si>
-    <t>15:33:56</t>
-  </si>
-  <si>
-    <t>2012.13.07.064</t>
-  </si>
-  <si>
-    <t>Iwan Setiawan S Pt</t>
+    <t>06:55:41</t>
+  </si>
+  <si>
+    <t>12:23:34</t>
   </si>
   <si>
     <t>2012.13.09.065</t>
@@ -449,34 +584,55 @@
     <t>Sinta Widayati</t>
   </si>
   <si>
+    <t>06:47:53</t>
+  </si>
+  <si>
+    <t>12:00:50</t>
+  </si>
+  <si>
     <t>2012.13.09.066</t>
   </si>
   <si>
     <t>Intan Nurlita Anisa</t>
   </si>
   <si>
+    <t>06:32:44</t>
+  </si>
+  <si>
+    <t>12:00:41</t>
+  </si>
+  <si>
     <t>2012.13.10.068</t>
   </si>
   <si>
     <t>Yudhi Dwi Arifianto</t>
   </si>
   <si>
+    <t>06:43:53</t>
+  </si>
+  <si>
     <t>2012.13.11.071</t>
   </si>
   <si>
     <t>Maghfiroh</t>
   </si>
   <si>
+    <t>06:56:33</t>
+  </si>
+  <si>
+    <t>12:03:57</t>
+  </si>
+  <si>
     <t>2012.13.11.073</t>
   </si>
   <si>
     <t>Bagus Wahyono</t>
   </si>
   <si>
-    <t>2012.13.11.074</t>
-  </si>
-  <si>
-    <t>David Nois Perdana</t>
+    <t>06:55:07</t>
+  </si>
+  <si>
+    <t>12:00:38</t>
   </si>
   <si>
     <t>2012.14.09.078</t>
@@ -485,7 +641,10 @@
     <t>Nasikhin</t>
   </si>
   <si>
-    <t>18:57:02</t>
+    <t>12:51:50</t>
+  </si>
+  <si>
+    <t>17:46:02</t>
   </si>
   <si>
     <t>2012.14.09.079</t>
@@ -494,10 +653,10 @@
     <t>Ferri Kurniawan</t>
   </si>
   <si>
-    <t>2022-03-19</t>
-  </si>
-  <si>
-    <t>Sabtu Shift 2</t>
+    <t>12:41:32</t>
+  </si>
+  <si>
+    <t>17:45:15</t>
   </si>
   <si>
     <t>2012.14.09.080</t>
@@ -506,340 +665,352 @@
     <t>Surojo</t>
   </si>
   <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>14:00:27</t>
-  </si>
-  <si>
-    <t>2021-12-08</t>
+    <t>12:42:42</t>
+  </si>
+  <si>
+    <t>17:56:16</t>
+  </si>
+  <si>
+    <t>2012.15.03.086</t>
+  </si>
+  <si>
+    <t>Nur Endah Setyawati</t>
+  </si>
+  <si>
+    <t>06:50:20</t>
+  </si>
+  <si>
+    <t>12:06:54</t>
+  </si>
+  <si>
+    <t>2012.15.05.087</t>
+  </si>
+  <si>
+    <t>Isnan Arif Pambudi</t>
+  </si>
+  <si>
+    <t>06:54:03</t>
+  </si>
+  <si>
+    <t>12:00:45</t>
+  </si>
+  <si>
+    <t>2012.15.05.088</t>
+  </si>
+  <si>
+    <t>Mustaqim</t>
+  </si>
+  <si>
+    <t>06:52:32</t>
+  </si>
+  <si>
+    <t>12:37:25</t>
+  </si>
+  <si>
+    <t>2012.15.11.096</t>
+  </si>
+  <si>
+    <t>Harnoko</t>
+  </si>
+  <si>
+    <t>06:54:00</t>
+  </si>
+  <si>
+    <t>12:11:55</t>
+  </si>
+  <si>
+    <t>2012.15.11.097</t>
+  </si>
+  <si>
+    <t>Nur Cholish</t>
+  </si>
+  <si>
+    <t>12:43:11</t>
+  </si>
+  <si>
+    <t>2012.15.12.099</t>
+  </si>
+  <si>
+    <t>Gumawan Nurdhianto</t>
+  </si>
+  <si>
+    <t>06:53:00</t>
+  </si>
+  <si>
+    <t>2012.15.12.100</t>
+  </si>
+  <si>
+    <t>Mirza Gunawan</t>
+  </si>
+  <si>
+    <t>06:54:16</t>
+  </si>
+  <si>
+    <t>12:12:57</t>
+  </si>
+  <si>
+    <t>2012.15.12.101</t>
+  </si>
+  <si>
+    <t>Febri Pratama</t>
+  </si>
+  <si>
+    <t>06:58:08</t>
+  </si>
+  <si>
+    <t>12:13:23</t>
+  </si>
+  <si>
+    <t>2012.15.12.103</t>
+  </si>
+  <si>
+    <t>Harlan Buyung Nurdhianto</t>
+  </si>
+  <si>
+    <t>12:48:40</t>
+  </si>
+  <si>
+    <t>17:48:22</t>
+  </si>
+  <si>
+    <t>2012.15.12.106</t>
+  </si>
+  <si>
+    <t>Reza Ahimsa Hendrianno</t>
+  </si>
+  <si>
+    <t>06:53:49</t>
+  </si>
+  <si>
+    <t>2012.16.01.107</t>
+  </si>
+  <si>
+    <t>Sarjono</t>
+  </si>
+  <si>
+    <t>12:33:43</t>
+  </si>
+  <si>
+    <t>17:47:41</t>
+  </si>
+  <si>
+    <t>2012.16.01.108</t>
+  </si>
+  <si>
+    <t>Rubiyanto</t>
+  </si>
+  <si>
+    <t>06:54:06</t>
+  </si>
+  <si>
+    <t>12:00:14</t>
+  </si>
+  <si>
+    <t>2012.16.07.115</t>
+  </si>
+  <si>
+    <t>Ariyanto</t>
+  </si>
+  <si>
+    <t>06:51:27</t>
+  </si>
+  <si>
+    <t>12:14:28</t>
+  </si>
+  <si>
+    <t>2012.17.01.122</t>
+  </si>
+  <si>
+    <t>Maryadi</t>
+  </si>
+  <si>
+    <t>2012.17.01.123</t>
+  </si>
+  <si>
+    <t>M Irfan Meyanto</t>
+  </si>
+  <si>
+    <t>06:53:26</t>
+  </si>
+  <si>
+    <t>12:19:33</t>
+  </si>
+  <si>
+    <t>2012.17.08.125</t>
+  </si>
+  <si>
+    <t>Hasnan Habib Al Fajar</t>
+  </si>
+  <si>
+    <t>12:35:35</t>
+  </si>
+  <si>
+    <t>17:47:47</t>
+  </si>
+  <si>
+    <t>2012.17.09.127</t>
+  </si>
+  <si>
+    <t>Haryanto</t>
+  </si>
+  <si>
+    <t>06:26:49</t>
+  </si>
+  <si>
+    <t>2012.17.09.132</t>
+  </si>
+  <si>
+    <t>Juni Bantu Pamungkas</t>
+  </si>
+  <si>
+    <t>06:36:36</t>
+  </si>
+  <si>
+    <t>12:10:25</t>
+  </si>
+  <si>
+    <t>2012.17.09.137</t>
+  </si>
+  <si>
+    <t>Gustam Barnafi</t>
+  </si>
+  <si>
+    <t>06:49:07</t>
+  </si>
+  <si>
+    <t>12:09:53</t>
+  </si>
+  <si>
+    <t>2012.17.11.143</t>
+  </si>
+  <si>
+    <t>Buyung Candra Bahari</t>
+  </si>
+  <si>
+    <t>06:55:56</t>
+  </si>
+  <si>
+    <t>2012.18.02.145</t>
+  </si>
+  <si>
+    <t>Hanik Kastuni</t>
+  </si>
+  <si>
+    <t>06:51:19</t>
+  </si>
+  <si>
+    <t>12:02:50</t>
+  </si>
+  <si>
+    <t>2012.18.02.146</t>
+  </si>
+  <si>
+    <t>Fenty Anindita Nurnafiah</t>
+  </si>
+  <si>
+    <t>06:47:09</t>
+  </si>
+  <si>
+    <t>12:02:37</t>
+  </si>
+  <si>
+    <t>2012.18.05.148</t>
+  </si>
+  <si>
+    <t>Taufik Hidayat</t>
+  </si>
+  <si>
+    <t>06:56:46</t>
+  </si>
+  <si>
+    <t>12:00:36</t>
+  </si>
+  <si>
+    <t>2012.18.08.153</t>
+  </si>
+  <si>
+    <t>Khoirur Rokhimin</t>
+  </si>
+  <si>
+    <t>06:55:59</t>
+  </si>
+  <si>
+    <t>12:07:54</t>
+  </si>
+  <si>
+    <t>2012.19.01.156</t>
+  </si>
+  <si>
+    <t>Buchori</t>
+  </si>
+  <si>
+    <t>06:51:06</t>
+  </si>
+  <si>
+    <t>12:01:24</t>
+  </si>
+  <si>
+    <t>2012.20.01.161</t>
+  </si>
+  <si>
+    <t>Pardiman</t>
+  </si>
+  <si>
+    <t>06:50:56</t>
+  </si>
+  <si>
+    <t>12:21:15</t>
+  </si>
+  <si>
+    <t>2012.20.01.162</t>
+  </si>
+  <si>
+    <t>Muhammad Misbakhudin</t>
+  </si>
+  <si>
+    <t>06:59:00</t>
+  </si>
+  <si>
+    <t>12:00:04</t>
+  </si>
+  <si>
+    <t>2012.20.01.163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doni Anggara Putra </t>
+  </si>
+  <si>
+    <t>06:45:59</t>
+  </si>
+  <si>
+    <t>12:05:54</t>
   </si>
   <si>
     <t>Security</t>
   </si>
   <si>
+    <t>Sec Sab 1</t>
+  </si>
+  <si>
+    <t>2012.20.02.000</t>
+  </si>
+  <si>
+    <t>Hermawan</t>
+  </si>
+  <si>
+    <t>05:45:00</t>
+  </si>
+  <si>
+    <t>06:07:45</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
     <t>Sec Long Shift 1</t>
   </si>
   <si>
-    <t>2012.14.09.083</t>
-  </si>
-  <si>
-    <t>Sutarno</t>
-  </si>
-  <si>
-    <t>05:45:00</t>
-  </si>
-  <si>
-    <t>06:04:35</t>
-  </si>
-  <si>
-    <t>2012.15.03.086</t>
-  </si>
-  <si>
-    <t>Nur Endah Setyawati</t>
-  </si>
-  <si>
-    <t>2012.15.05.087</t>
-  </si>
-  <si>
-    <t>Isnan Arif Pambudi</t>
-  </si>
-  <si>
-    <t>2012.15.05.088</t>
-  </si>
-  <si>
-    <t>Mustaqim</t>
-  </si>
-  <si>
-    <t>2012.15.10.094</t>
-  </si>
-  <si>
-    <t>Miftah Mafazi</t>
-  </si>
-  <si>
-    <t>2012.15.11.096</t>
-  </si>
-  <si>
-    <t>Harnoko</t>
-  </si>
-  <si>
-    <t>2012.15.11.097</t>
-  </si>
-  <si>
-    <t>Nur Cholish</t>
-  </si>
-  <si>
-    <t>2012.15.12.099</t>
-  </si>
-  <si>
-    <t>Gumawan Nurdhianto</t>
-  </si>
-  <si>
-    <t>2012.15.12.100</t>
-  </si>
-  <si>
-    <t>Mirza Gunawan</t>
-  </si>
-  <si>
-    <t>14:04:27</t>
-  </si>
-  <si>
-    <t>2012.15.12.101</t>
-  </si>
-  <si>
-    <t>Febri Pratama</t>
-  </si>
-  <si>
-    <t>2012.15.12.103</t>
-  </si>
-  <si>
-    <t>Harlan Buyung Nurdhianto</t>
-  </si>
-  <si>
-    <t>22:30:05</t>
-  </si>
-  <si>
-    <t>2012.15.12.106</t>
-  </si>
-  <si>
-    <t>Reza Ahimsa Hendrianno</t>
-  </si>
-  <si>
-    <t>2012.16.01.107</t>
-  </si>
-  <si>
-    <t>Sarjono</t>
-  </si>
-  <si>
-    <t>2012.16.01.108</t>
-  </si>
-  <si>
-    <t>Rubiyanto</t>
-  </si>
-  <si>
-    <t>2012.16.03.112</t>
-  </si>
-  <si>
-    <t>Andika Beny Setyawan</t>
-  </si>
-  <si>
-    <t>2012.16.07.115</t>
-  </si>
-  <si>
-    <t>Ariyanto</t>
-  </si>
-  <si>
-    <t>14:00:04</t>
-  </si>
-  <si>
-    <t>2012.16.07.118</t>
-  </si>
-  <si>
-    <t>Muhammad Khoirul Anam</t>
-  </si>
-  <si>
-    <t>2012.16.10.119</t>
-  </si>
-  <si>
-    <t>Anor Riza Rudianto</t>
-  </si>
-  <si>
-    <t>2012.16.12.120</t>
-  </si>
-  <si>
-    <t>Gunawan</t>
-  </si>
-  <si>
-    <t>2012.17.01.122</t>
-  </si>
-  <si>
-    <t>Maryadi</t>
-  </si>
-  <si>
-    <t>2012.17.01.123</t>
-  </si>
-  <si>
-    <t>M Irfan Meyanto</t>
-  </si>
-  <si>
-    <t>15:05:59</t>
-  </si>
-  <si>
-    <t>22:30:36</t>
-  </si>
-  <si>
-    <t>2012.17.08.125</t>
-  </si>
-  <si>
-    <t>Hasnan Habib Al Fajar</t>
-  </si>
-  <si>
-    <t>15:00:40</t>
-  </si>
-  <si>
-    <t>22:30:02</t>
-  </si>
-  <si>
-    <t>2012.17.09.127</t>
-  </si>
-  <si>
-    <t>Haryanto</t>
-  </si>
-  <si>
-    <t>2012.17.09.131</t>
-  </si>
-  <si>
-    <t>Karindra Gatya Arzenna</t>
-  </si>
-  <si>
-    <t>2012.17.09.132</t>
-  </si>
-  <si>
-    <t>Juni Bantu Pamungkas</t>
-  </si>
-  <si>
-    <t>2012.17.09.134</t>
-  </si>
-  <si>
-    <t>Ifan Dwi Sanusi</t>
-  </si>
-  <si>
-    <t>2012.17.09.137</t>
-  </si>
-  <si>
-    <t>Gustam Barnafi</t>
-  </si>
-  <si>
-    <t>2012.17.09.138</t>
-  </si>
-  <si>
-    <t>Tri Dal Dhikri</t>
-  </si>
-  <si>
-    <t>2012.17.11.142</t>
-  </si>
-  <si>
-    <t>Muhammad Rafiq</t>
-  </si>
-  <si>
-    <t>2012.17.11.143</t>
-  </si>
-  <si>
-    <t>Buyung Candra Bahari</t>
-  </si>
-  <si>
-    <t>2012.17.11.144</t>
-  </si>
-  <si>
-    <t>Yusak Nugroho</t>
-  </si>
-  <si>
-    <t>2012.18.02.145</t>
-  </si>
-  <si>
-    <t>Hanik Kastuni</t>
-  </si>
-  <si>
-    <t>2012.18.02.146</t>
-  </si>
-  <si>
-    <t>Fenty Anindita Nurnafiah</t>
-  </si>
-  <si>
-    <t>2012.18.05.148</t>
-  </si>
-  <si>
-    <t>Taufik Hidayat</t>
-  </si>
-  <si>
-    <t>2012.18.08.151</t>
-  </si>
-  <si>
-    <t>Dwi Novi Casyanto</t>
-  </si>
-  <si>
-    <t>2022-03-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Shift </t>
-  </si>
-  <si>
-    <t>2012.18.08.153</t>
-  </si>
-  <si>
-    <t>Khoirur Rokhimin</t>
-  </si>
-  <si>
-    <t>18:00:00</t>
-  </si>
-  <si>
-    <t>20:30:33</t>
-  </si>
-  <si>
-    <t>2012.19.01.154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Islakhuddin Rais </t>
-  </si>
-  <si>
-    <t>2012.19.01.156</t>
-  </si>
-  <si>
-    <t>Buchori</t>
-  </si>
-  <si>
-    <t>15:01:35</t>
-  </si>
-  <si>
-    <t>2021-09-28</t>
-  </si>
-  <si>
-    <t>2012.19.01.159</t>
-  </si>
-  <si>
-    <t>Dita Yuliana</t>
-  </si>
-  <si>
-    <t>2012.19.01.160</t>
-  </si>
-  <si>
-    <t>Ermalia Nur Hasyimi</t>
-  </si>
-  <si>
-    <t>2012.20.01.161</t>
-  </si>
-  <si>
-    <t>Pardiman</t>
-  </si>
-  <si>
-    <t>15:00:08</t>
-  </si>
-  <si>
-    <t>2012.20.01.162</t>
-  </si>
-  <si>
-    <t>Muhammad Misbakhudin</t>
-  </si>
-  <si>
-    <t>2012.20.01.163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doni Anggara Putra </t>
-  </si>
-  <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>2012.20.02.000</t>
-  </si>
-  <si>
-    <t>Hermawan</t>
-  </si>
-  <si>
-    <t>2021-03-02</t>
-  </si>
-  <si>
-    <t>YUSUF PURNAMA</t>
+    <t>20:30:00</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1346,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,7 +1414,7 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1258,51 +1429,67 @@
       <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
-        <v>21</v>
+      <c r="J4">
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5"/>
-      <c r="H5"/>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1311,666 +1498,838 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7"/>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7"/>
-      <c r="H7"/>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
       <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G9"/>
-      <c r="H9"/>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
       <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G10"/>
-      <c r="H10"/>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
       <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
       <c r="D12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G12"/>
-      <c r="H12"/>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
       <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
       <c r="D14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G14"/>
-      <c r="H14"/>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
       <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
       <c r="D15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G15"/>
-      <c r="H15"/>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
       <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
+        <v>68</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16"/>
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
       <c r="D16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G16"/>
-      <c r="H16"/>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
       <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
+        <v>72</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18"/>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
       <c r="D18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G18"/>
-      <c r="H18"/>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
       <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
+        <v>80</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19"/>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
       <c r="D19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G19"/>
-      <c r="H19"/>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
       <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
+        <v>84</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20"/>
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
       <c r="D20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="G20"/>
-      <c r="H20"/>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
       <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
+        <v>88</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
+        <v>91</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22"/>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
       <c r="D22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G22"/>
-      <c r="H22"/>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
       <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>21</v>
+        <v>95</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23"/>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
       <c r="D23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G23"/>
-      <c r="H23"/>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
       <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>21</v>
+        <v>99</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24"/>
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
       <c r="D24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="G24"/>
-      <c r="H24"/>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
       <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>21</v>
+        <v>103</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" t="s">
-        <v>21</v>
+        <v>107</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1979,61 +2338,77 @@
         <v>17</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
         <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
-        <v>21</v>
+        <v>111</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27"/>
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
       <c r="D27">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="G27"/>
-      <c r="H27"/>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
       <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>21</v>
+        <v>114</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2041,63 +2416,83 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28"/>
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
       <c r="D28">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="G28"/>
-      <c r="H28"/>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
       <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" t="s">
-        <v>21</v>
+        <v>118</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29"/>
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
       <c r="D29">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="G29"/>
-      <c r="H29"/>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
       <c r="I29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" t="s">
-        <v>21</v>
+        <v>122</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2105,40 +2500,46 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
         <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>21</v>
+        <v>126</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -2147,234 +2548,292 @@
         <v>17</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
         <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>21</v>
+        <v>129</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>96</v>
+        <v>22</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32"/>
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
       <c r="D32">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G32"/>
-      <c r="H32"/>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
       <c r="I32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" t="s">
-        <v>21</v>
+        <v>133</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
         <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>21</v>
+        <v>137</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>102</v>
+        <v>22</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34"/>
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
       <c r="D34">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="G34"/>
-      <c r="H34"/>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
       <c r="I34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" t="s">
-        <v>21</v>
+        <v>142</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>143</v>
+      </c>
+      <c r="N34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
         <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" t="s">
-        <v>21</v>
+        <v>146</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>107</v>
+        <v>22</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
       <c r="D36">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="G36"/>
-      <c r="H36"/>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
       <c r="I36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" t="s">
-        <v>21</v>
+        <v>150</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37"/>
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
       <c r="D37">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="G37"/>
-      <c r="H37"/>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
       <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
-        <v>21</v>
+        <v>154</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -2383,334 +2842,418 @@
         <v>17</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
         <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" t="s">
-        <v>21</v>
+        <v>158</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="C39"/>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
       <c r="D39">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="G39"/>
-      <c r="H39"/>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
       <c r="I39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" t="s">
-        <v>21</v>
+        <v>162</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
-      </c>
-      <c r="J40" t="s">
-        <v>21</v>
+        <v>166</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M40" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41"/>
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
       <c r="D41">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="G41"/>
-      <c r="H41"/>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
       <c r="I41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" t="s">
-        <v>21</v>
+        <v>169</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M41" t="s">
+        <v>37</v>
+      </c>
+      <c r="N41" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C42"/>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
       <c r="D42">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G42"/>
-      <c r="H42"/>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
       <c r="I42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" t="s">
-        <v>21</v>
+        <v>173</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43"/>
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
       <c r="D43">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="F43" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="G43"/>
-      <c r="H43"/>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
       <c r="I43" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" t="s">
-        <v>21</v>
+        <v>177</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J44" t="s">
-        <v>21</v>
+        <v>181</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>128</v>
+        <v>22</v>
+      </c>
+      <c r="M44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="C45"/>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
       <c r="D45">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="G45"/>
-      <c r="H45"/>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
       <c r="I45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" t="s">
-        <v>21</v>
+        <v>185</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="G46"/>
       <c r="H46" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>134</v>
-      </c>
-      <c r="J46" t="s">
-        <v>21</v>
+        <v>189</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
-      <c r="C47"/>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
       <c r="D47">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="F47" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="G47"/>
-      <c r="H47"/>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
       <c r="I47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" t="s">
-        <v>21</v>
+        <v>193</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M47" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -2719,29 +3262,35 @@
         <v>17</v>
       </c>
       <c r="D48">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F48" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G48"/>
       <c r="H48" t="s">
         <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" t="s">
-        <v>21</v>
+        <v>197</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>139</v>
+        <v>22</v>
+      </c>
+      <c r="M48" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2755,189 +3304,245 @@
         <v>17</v>
       </c>
       <c r="D49">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="G49"/>
       <c r="H49" t="s">
         <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" t="s">
-        <v>21</v>
+        <v>200</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M49" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
-      <c r="C50"/>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
       <c r="D50">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="G50"/>
-      <c r="H50"/>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
       <c r="I50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" t="s">
-        <v>21</v>
+        <v>204</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M50" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51"/>
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
       <c r="D51">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="G51"/>
-      <c r="H51"/>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
       <c r="I51" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" t="s">
-        <v>21</v>
+        <v>208</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M51" t="s">
+        <v>37</v>
+      </c>
+      <c r="N51" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52"/>
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
       <c r="D52">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="G52"/>
-      <c r="H52"/>
+      <c r="H52" t="s">
+        <v>35</v>
+      </c>
       <c r="I52" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" t="s">
-        <v>21</v>
+        <v>212</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M52" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53"/>
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
       <c r="D53">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="G53"/>
-      <c r="H53"/>
+      <c r="H53" t="s">
+        <v>35</v>
+      </c>
       <c r="I53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" t="s">
-        <v>21</v>
+        <v>216</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M53" t="s">
+        <v>37</v>
+      </c>
+      <c r="N53" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
-      <c r="C54"/>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
       <c r="D54">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="G54"/>
-      <c r="H54"/>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
       <c r="I54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" t="s">
-        <v>21</v>
+        <v>220</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M54" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2951,265 +3556,329 @@
         <v>17</v>
       </c>
       <c r="D55">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="G55"/>
       <c r="H55" t="s">
         <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" t="s">
-        <v>21</v>
+        <v>224</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M55" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="G56"/>
       <c r="H56" t="s">
         <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" t="s">
-        <v>21</v>
+        <v>228</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>156</v>
+        <v>22</v>
+      </c>
+      <c r="M56" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57"/>
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
       <c r="D57">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="G57"/>
-      <c r="H57"/>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
       <c r="I57" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" t="s">
-        <v>21</v>
+        <v>232</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M57" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="G58"/>
       <c r="H58" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>164</v>
-      </c>
-      <c r="J58" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M58" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>171</v>
-      </c>
-      <c r="J59" t="s">
-        <v>21</v>
+        <v>239</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M59" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60"/>
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
       <c r="D60">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="G60"/>
-      <c r="H60"/>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
       <c r="I60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" t="s">
-        <v>21</v>
+        <v>242</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M60" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
-      <c r="C61"/>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
       <c r="D61">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="G61"/>
-      <c r="H61"/>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
       <c r="I61" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" t="s">
-        <v>21</v>
+        <v>246</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62"/>
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
       <c r="D62">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="F62" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="G62"/>
-      <c r="H62"/>
+      <c r="H62" t="s">
+        <v>35</v>
+      </c>
       <c r="I62" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" t="s">
-        <v>21</v>
+        <v>250</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M62" t="s">
+        <v>37</v>
+      </c>
+      <c r="N62" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3223,198 +3892,250 @@
         <v>17</v>
       </c>
       <c r="D63">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="F63" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="G63"/>
       <c r="H63" t="s">
         <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" t="s">
-        <v>21</v>
+        <v>254</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M63" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64"/>
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
       <c r="D64">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="F64" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="G64"/>
-      <c r="H64"/>
+      <c r="H64" t="s">
+        <v>35</v>
+      </c>
       <c r="I64" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" t="s">
-        <v>21</v>
+        <v>257</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M64" t="s">
+        <v>37</v>
+      </c>
+      <c r="N64" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
-      <c r="C65"/>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
       <c r="D65">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="F65" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="G65"/>
-      <c r="H65"/>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
       <c r="I65" t="s">
-        <v>21</v>
-      </c>
-      <c r="J65" t="s">
-        <v>21</v>
+        <v>261</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M65" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66"/>
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
       <c r="D66">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="F66" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="G66"/>
-      <c r="H66"/>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
       <c r="I66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" t="s">
-        <v>21</v>
+        <v>265</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="D67">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="F67" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>188</v>
-      </c>
-      <c r="J67" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M67" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68"/>
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
       <c r="D68">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="F68" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="G68"/>
-      <c r="H68"/>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
       <c r="I68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J68" t="s">
-        <v>21</v>
+        <v>271</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M68" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -3423,125 +4144,161 @@
         <v>32</v>
       </c>
       <c r="D69">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="F69" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="G69"/>
       <c r="H69" t="s">
         <v>35</v>
       </c>
       <c r="I69" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" t="s">
-        <v>21</v>
+        <v>275</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>193</v>
+        <v>22</v>
+      </c>
+      <c r="M69" t="s">
+        <v>37</v>
+      </c>
+      <c r="N69" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="C70"/>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
       <c r="D70">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="G70"/>
-      <c r="H70"/>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
       <c r="I70" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" t="s">
-        <v>21</v>
+        <v>279</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M70" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71"/>
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
       <c r="D71">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="F71" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="G71"/>
-      <c r="H71"/>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
       <c r="I71" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" t="s">
-        <v>21</v>
+        <v>282</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M71" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="C72"/>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
       <c r="D72">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E72" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="F72" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="G72"/>
-      <c r="H72"/>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
       <c r="I72" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" t="s">
-        <v>21</v>
+        <v>286</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M72" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3555,65 +4312,77 @@
         <v>17</v>
       </c>
       <c r="D73">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="F73" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
         <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" t="s">
-        <v>21</v>
+        <v>290</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M73" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="F74" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="I74" t="s">
-        <v>204</v>
-      </c>
-      <c r="J74" t="s">
-        <v>21</v>
+        <v>293</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M74" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3621,31 +4390,41 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75"/>
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
       <c r="D75">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="G75"/>
-      <c r="H75"/>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
       <c r="I75" t="s">
-        <v>21</v>
-      </c>
-      <c r="J75" t="s">
-        <v>21</v>
+        <v>297</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M75" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3659,29 +4438,35 @@
         <v>17</v>
       </c>
       <c r="D76">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="F76" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="G76"/>
       <c r="H76" t="s">
         <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" t="s">
-        <v>21</v>
+        <v>301</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M76" t="s">
+        <v>23</v>
+      </c>
+      <c r="N76" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3689,171 +4474,209 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="F77" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
         <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
-      </c>
-      <c r="J77" t="s">
-        <v>21</v>
+        <v>305</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M77" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78"/>
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
       <c r="D78">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="F78" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="G78"/>
-      <c r="H78"/>
+      <c r="H78" t="s">
+        <v>20</v>
+      </c>
       <c r="I78" t="s">
-        <v>21</v>
-      </c>
-      <c r="J78" t="s">
-        <v>21</v>
+        <v>309</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M78" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D79">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F79" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="G79"/>
       <c r="H79" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I79" t="s">
-        <v>215</v>
-      </c>
-      <c r="J79" t="s">
-        <v>21</v>
+        <v>313</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>216</v>
+        <v>22</v>
+      </c>
+      <c r="M79" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="F80" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="G80"/>
       <c r="H80" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>219</v>
-      </c>
-      <c r="J80" t="s">
-        <v>21</v>
+        <v>317</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>220</v>
+        <v>22</v>
+      </c>
+      <c r="M80" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81"/>
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
       <c r="D81">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="F81" t="s">
-        <v>222</v>
+        <v>320</v>
       </c>
       <c r="G81"/>
-      <c r="H81"/>
+      <c r="H81" t="s">
+        <v>20</v>
+      </c>
       <c r="I81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J81" t="s">
-        <v>21</v>
+        <v>321</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L81" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M81" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3861,747 +4684,83 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="D82">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="F82" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="I82" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" t="s">
-        <v>21</v>
+        <v>328</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M82" t="s">
+        <v>329</v>
+      </c>
+      <c r="N82" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83"/>
+        <v>323</v>
+      </c>
+      <c r="C83" t="s">
+        <v>330</v>
+      </c>
       <c r="D83">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="F83" t="s">
-        <v>226</v>
+        <v>326</v>
       </c>
       <c r="G83"/>
-      <c r="H83"/>
+      <c r="H83" t="s">
+        <v>327</v>
+      </c>
       <c r="I83" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" t="s">
-        <v>21</v>
+        <v>328</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84"/>
-      <c r="D84">
-        <v>81</v>
-      </c>
-      <c r="E84" t="s">
-        <v>227</v>
-      </c>
-      <c r="F84" t="s">
-        <v>228</v>
-      </c>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84" t="s">
-        <v>21</v>
-      </c>
-      <c r="J84" t="s">
-        <v>21</v>
-      </c>
-      <c r="K84" t="s">
-        <v>21</v>
-      </c>
-      <c r="L84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85"/>
-      <c r="D85">
-        <v>82</v>
-      </c>
-      <c r="E85" t="s">
-        <v>229</v>
-      </c>
-      <c r="F85" t="s">
-        <v>230</v>
-      </c>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85" t="s">
-        <v>21</v>
-      </c>
-      <c r="J85" t="s">
-        <v>21</v>
-      </c>
-      <c r="K85" t="s">
-        <v>21</v>
-      </c>
-      <c r="L85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86">
-        <v>83</v>
-      </c>
-      <c r="E86" t="s">
-        <v>231</v>
-      </c>
-      <c r="F86" t="s">
-        <v>232</v>
-      </c>
-      <c r="G86"/>
-      <c r="H86" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J86" t="s">
-        <v>21</v>
-      </c>
-      <c r="K86" t="s">
-        <v>21</v>
-      </c>
-      <c r="L86" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87">
-        <v>84</v>
-      </c>
-      <c r="E87" t="s">
-        <v>233</v>
-      </c>
-      <c r="F87" t="s">
-        <v>234</v>
-      </c>
-      <c r="G87"/>
-      <c r="H87" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87" t="s">
-        <v>21</v>
-      </c>
-      <c r="J87" t="s">
-        <v>21</v>
-      </c>
-      <c r="K87" t="s">
-        <v>21</v>
-      </c>
-      <c r="L87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88"/>
-      <c r="D88">
-        <v>85</v>
-      </c>
-      <c r="E88" t="s">
-        <v>235</v>
-      </c>
-      <c r="F88" t="s">
-        <v>236</v>
-      </c>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88" t="s">
-        <v>21</v>
-      </c>
-      <c r="J88" t="s">
-        <v>21</v>
-      </c>
-      <c r="K88" t="s">
-        <v>21</v>
-      </c>
-      <c r="L88" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89">
-        <v>86</v>
-      </c>
-      <c r="E89" t="s">
-        <v>237</v>
-      </c>
-      <c r="F89" t="s">
-        <v>238</v>
-      </c>
-      <c r="G89"/>
-      <c r="H89" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89" t="s">
-        <v>21</v>
-      </c>
-      <c r="J89" t="s">
-        <v>21</v>
-      </c>
-      <c r="K89" t="s">
-        <v>21</v>
-      </c>
-      <c r="L89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90"/>
-      <c r="D90">
-        <v>87</v>
-      </c>
-      <c r="E90" t="s">
-        <v>239</v>
-      </c>
-      <c r="F90" t="s">
-        <v>240</v>
-      </c>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90" t="s">
-        <v>21</v>
-      </c>
-      <c r="J90" t="s">
-        <v>21</v>
-      </c>
-      <c r="K90" t="s">
-        <v>21</v>
-      </c>
-      <c r="L90" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91"/>
-      <c r="D91">
-        <v>88</v>
-      </c>
-      <c r="E91" t="s">
-        <v>241</v>
-      </c>
-      <c r="F91" t="s">
-        <v>242</v>
-      </c>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91" t="s">
-        <v>21</v>
-      </c>
-      <c r="J91" t="s">
-        <v>21</v>
-      </c>
-      <c r="K91" t="s">
-        <v>21</v>
-      </c>
-      <c r="L91" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92"/>
-      <c r="D92">
-        <v>89</v>
-      </c>
-      <c r="E92" t="s">
-        <v>243</v>
-      </c>
-      <c r="F92" t="s">
-        <v>244</v>
-      </c>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92" t="s">
-        <v>21</v>
-      </c>
-      <c r="J92" t="s">
-        <v>21</v>
-      </c>
-      <c r="K92" t="s">
-        <v>21</v>
-      </c>
-      <c r="L92" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93">
-        <v>90</v>
-      </c>
-      <c r="E93" t="s">
-        <v>245</v>
-      </c>
-      <c r="F93" t="s">
-        <v>246</v>
-      </c>
-      <c r="G93"/>
-      <c r="H93" t="s">
-        <v>20</v>
-      </c>
-      <c r="I93" t="s">
-        <v>21</v>
-      </c>
-      <c r="J93" t="s">
-        <v>21</v>
-      </c>
-      <c r="K93" t="s">
-        <v>21</v>
-      </c>
-      <c r="L93" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" t="s">
-        <v>247</v>
-      </c>
-      <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s">
-        <v>248</v>
-      </c>
-      <c r="D94">
-        <v>91</v>
-      </c>
-      <c r="E94" t="s">
-        <v>249</v>
-      </c>
-      <c r="F94" t="s">
-        <v>250</v>
-      </c>
-      <c r="G94"/>
-      <c r="H94" t="s">
-        <v>251</v>
-      </c>
-      <c r="I94" t="s">
-        <v>21</v>
-      </c>
-      <c r="J94" t="s">
-        <v>21</v>
-      </c>
-      <c r="K94" t="s">
-        <v>21</v>
-      </c>
-      <c r="L94" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95"/>
-      <c r="D95">
-        <v>92</v>
-      </c>
-      <c r="E95" t="s">
-        <v>253</v>
-      </c>
-      <c r="F95" t="s">
-        <v>254</v>
-      </c>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95" t="s">
-        <v>21</v>
-      </c>
-      <c r="J95" t="s">
-        <v>21</v>
-      </c>
-      <c r="K95" t="s">
-        <v>21</v>
-      </c>
-      <c r="L95" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96">
-        <v>93</v>
-      </c>
-      <c r="E96" t="s">
-        <v>255</v>
-      </c>
-      <c r="F96" t="s">
-        <v>256</v>
-      </c>
-      <c r="G96"/>
-      <c r="H96" t="s">
-        <v>35</v>
-      </c>
-      <c r="I96" t="s">
-        <v>257</v>
-      </c>
-      <c r="J96" t="s">
-        <v>21</v>
-      </c>
-      <c r="K96" t="s">
-        <v>21</v>
-      </c>
-      <c r="L96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" t="s">
-        <v>258</v>
-      </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97">
-        <v>94</v>
-      </c>
-      <c r="E97" t="s">
-        <v>259</v>
-      </c>
-      <c r="F97" t="s">
-        <v>260</v>
-      </c>
-      <c r="G97"/>
-      <c r="H97" t="s">
-        <v>20</v>
-      </c>
-      <c r="I97" t="s">
-        <v>21</v>
-      </c>
-      <c r="J97" t="s">
-        <v>21</v>
-      </c>
-      <c r="K97" t="s">
-        <v>21</v>
-      </c>
-      <c r="L97" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98">
-        <v>95</v>
-      </c>
-      <c r="E98" t="s">
-        <v>261</v>
-      </c>
-      <c r="F98" t="s">
-        <v>262</v>
-      </c>
-      <c r="G98"/>
-      <c r="H98" t="s">
-        <v>20</v>
-      </c>
-      <c r="I98" t="s">
-        <v>21</v>
-      </c>
-      <c r="J98" t="s">
-        <v>21</v>
-      </c>
-      <c r="K98" t="s">
-        <v>21</v>
-      </c>
-      <c r="L98" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" t="s">
-        <v>131</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>32</v>
-      </c>
-      <c r="D99">
-        <v>96</v>
-      </c>
-      <c r="E99" t="s">
-        <v>263</v>
-      </c>
-      <c r="F99" t="s">
-        <v>264</v>
-      </c>
-      <c r="G99"/>
-      <c r="H99" t="s">
-        <v>35</v>
-      </c>
-      <c r="I99" t="s">
-        <v>265</v>
-      </c>
-      <c r="J99" t="s">
-        <v>21</v>
-      </c>
-      <c r="K99" t="s">
-        <v>21</v>
-      </c>
-      <c r="L99" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100"/>
-      <c r="D100">
-        <v>97</v>
-      </c>
-      <c r="E100" t="s">
-        <v>266</v>
-      </c>
-      <c r="F100" t="s">
-        <v>267</v>
-      </c>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100" t="s">
-        <v>21</v>
-      </c>
-      <c r="J100" t="s">
-        <v>21</v>
-      </c>
-      <c r="K100" t="s">
-        <v>21</v>
-      </c>
-      <c r="L100" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101"/>
-      <c r="D101">
-        <v>98</v>
-      </c>
-      <c r="E101" t="s">
-        <v>268</v>
-      </c>
-      <c r="F101" t="s">
-        <v>269</v>
-      </c>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101" t="s">
-        <v>21</v>
-      </c>
-      <c r="J101" t="s">
-        <v>21</v>
-      </c>
-      <c r="K101" t="s">
-        <v>21</v>
-      </c>
-      <c r="L101" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" t="s">
-        <v>270</v>
-      </c>
-      <c r="B102" t="s">
-        <v>166</v>
-      </c>
-      <c r="C102"/>
-      <c r="D102">
-        <v>99</v>
-      </c>
-      <c r="E102" t="s">
-        <v>271</v>
-      </c>
-      <c r="F102" t="s">
-        <v>272</v>
-      </c>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K102" t="s">
-        <v>21</v>
-      </c>
-      <c r="L102" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
-      <c r="A103" t="s">
-        <v>273</v>
-      </c>
-      <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103">
-        <v>1000</v>
-      </c>
-      <c r="E103">
-        <v>1000</v>
-      </c>
-      <c r="F103" t="s">
-        <v>274</v>
-      </c>
-      <c r="G103"/>
-      <c r="H103" t="s">
-        <v>20</v>
-      </c>
-      <c r="I103" t="s">
-        <v>21</v>
-      </c>
-      <c r="J103" t="s">
-        <v>21</v>
-      </c>
-      <c r="K103" t="s">
-        <v>21</v>
-      </c>
-      <c r="L103" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M83" t="s">
+        <v>331</v>
+      </c>
+      <c r="N83" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
